--- a/samples/meta_video_ads_demo.xlsx
+++ b/samples/meta_video_ads_demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="164">
   <si>
     <t>Campaign Name</t>
   </si>
@@ -52,76 +52,85 @@
     <t>Thumbnail URL</t>
   </si>
   <si>
-    <t>Video Campaign 1</t>
-  </si>
-  <si>
-    <t>Video Campaign 2</t>
-  </si>
-  <si>
-    <t>Video Campaign 3</t>
-  </si>
-  <si>
-    <t>Video Campaign 4</t>
-  </si>
-  <si>
-    <t>Video Ad Set 1</t>
-  </si>
-  <si>
-    <t>Video Ad Set 2</t>
-  </si>
-  <si>
-    <t>Video Ad Set 3</t>
-  </si>
-  <si>
-    <t>Video Ad Set 4</t>
-  </si>
-  <si>
-    <t>Video Ad Set 5</t>
-  </si>
-  <si>
-    <t>Video Ad Set 6</t>
-  </si>
-  <si>
-    <t>Video Ad Set 7</t>
-  </si>
-  <si>
-    <t>Video Ad Set 8</t>
-  </si>
-  <si>
-    <t>Video Ad Set 9</t>
-  </si>
-  <si>
-    <t>Video Ad Set 10</t>
-  </si>
-  <si>
-    <t>Video Ad Set 11</t>
-  </si>
-  <si>
-    <t>Video Ad Set 12</t>
-  </si>
-  <si>
-    <t>Video Ad Set 13</t>
-  </si>
-  <si>
-    <t>Video Ad Set 14</t>
-  </si>
-  <si>
-    <t>Video Ad Set 15</t>
-  </si>
-  <si>
-    <t>Video Ad Set 16</t>
-  </si>
-  <si>
-    <t>Video Ad Set 17</t>
-  </si>
-  <si>
-    <t>Video Ad Set 18</t>
-  </si>
-  <si>
-    <t>Video Ad Set 19</t>
-  </si>
-  <si>
-    <t>Video Ad Set 20</t>
+    <t>Video - Feed</t>
+  </si>
+  <si>
+    <t>Video - Stories</t>
+  </si>
+  <si>
+    <t>Video - Reels</t>
+  </si>
+  <si>
+    <t>Video - Explore</t>
+  </si>
+  <si>
+    <t>Video - Feed Placement</t>
+  </si>
+  <si>
+    <t>Video - Stories Placement</t>
+  </si>
+  <si>
+    <t>Video - Reels Placement</t>
+  </si>
+  <si>
+    <t>FitLife Video - Ad Set 1</t>
+  </si>
+  <si>
+    <t>EcoShop Video - Ad Set 2</t>
+  </si>
+  <si>
+    <t>TechGuru Video - Ad Set 3</t>
+  </si>
+  <si>
+    <t>FoodieBox Video - Ad Set 4</t>
+  </si>
+  <si>
+    <t>PetCare+ Video - Ad Set 5</t>
+  </si>
+  <si>
+    <t>StyleHub Video - Ad Set 6</t>
+  </si>
+  <si>
+    <t>HomeGlow Video - Ad Set 7</t>
+  </si>
+  <si>
+    <t>LearnFast Video - Ad Set 8</t>
+  </si>
+  <si>
+    <t>FitLife Video - Ad Set 9</t>
+  </si>
+  <si>
+    <t>EcoShop Video - Ad Set 10</t>
+  </si>
+  <si>
+    <t>TechGuru Video - Ad Set 11</t>
+  </si>
+  <si>
+    <t>FoodieBox Video - Ad Set 12</t>
+  </si>
+  <si>
+    <t>PetCare+ Video - Ad Set 13</t>
+  </si>
+  <si>
+    <t>StyleHub Video - Ad Set 14</t>
+  </si>
+  <si>
+    <t>HomeGlow Video - Ad Set 15</t>
+  </si>
+  <si>
+    <t>LearnFast Video - Ad Set 16</t>
+  </si>
+  <si>
+    <t>Electronics Sale Video</t>
+  </si>
+  <si>
+    <t>Online Course Video</t>
+  </si>
+  <si>
+    <t>Fashion Brand Video</t>
+  </si>
+  <si>
+    <t>SaaS Product Video</t>
   </si>
   <si>
     <t>Video Ad 1</t>
@@ -190,61 +199,313 @@
     <t>active</t>
   </si>
   <si>
-    <t>https://example.com/videos/promo.mp4</t>
-  </si>
-  <si>
-    <t>https://example.com/videos/sale.mp4</t>
-  </si>
-  <si>
-    <t>https://example.com/videos/launch.mp4</t>
-  </si>
-  <si>
-    <t>https://example.com/videos/blackfriday.mp4</t>
-  </si>
-  <si>
-    <t>Discover our latest collection of premium products. Limited time offer - free shipping on orders over $50!</t>
-  </si>
-  <si>
-    <t>Check out our amazing deals on electronics, home goods, and more this week!</t>
-  </si>
-  <si>
-    <t>Up to 70% off on selected items. Don't miss out on these incredible savings!</t>
-  </si>
-  <si>
-    <t>AMAZING NEW PRODUCT NOW AVAILABLE!!! BUY TODAY AND SAVE BIG ON YOUR PURCHASE!!!</t>
-  </si>
-  <si>
-    <t>The biggest sale of the year is here! Shop now and save up to 80% on everything.</t>
-  </si>
-  <si>
-    <t>Shop New Arrivals</t>
-  </si>
-  <si>
-    <t>This headline is way too long for Facebook Feed placement</t>
-  </si>
-  <si>
-    <t>Summer Sale Event</t>
-  </si>
-  <si>
-    <t>New Product Launch</t>
-  </si>
-  <si>
-    <t>Black Friday Deals</t>
-  </si>
-  <si>
-    <t>Click to learn more</t>
-  </si>
-  <si>
-    <t>https://example.com/products</t>
-  </si>
-  <si>
-    <t>example.com/shop</t>
+    <t>https://video.fitlife.com/join/promo-1.mp4</t>
+  </si>
+  <si>
+    <t>https://video.ecoshop.com/products/promo-2.mp4</t>
+  </si>
+  <si>
+    <t>https://video.techguru.com/bootcamp/promo-3.mp4</t>
+  </si>
+  <si>
+    <t>https://video.foodiebox.com/plans/promo-4.mp4</t>
+  </si>
+  <si>
+    <t>https://video.petcareplus.com/shop/promo-5.mp4</t>
+  </si>
+  <si>
+    <t>https://video.stylehub.com/rent/promo-6.mp4</t>
+  </si>
+  <si>
+    <t>https://video.homeglow.com/smart/promo-7.mp4</t>
+  </si>
+  <si>
+    <t>https://video.learnfast.com/courses/promo-8.mp4</t>
+  </si>
+  <si>
+    <t>https://video.fitlife.com/join/promo-9.mp4</t>
+  </si>
+  <si>
+    <t>https://video.ecoshop.com/products/promo-10.mp4</t>
+  </si>
+  <si>
+    <t>https://video.techguru.com/bootcamp/promo-11.mp4</t>
+  </si>
+  <si>
+    <t>https://video.foodiebox.com/plans/promo-12.mp4</t>
+  </si>
+  <si>
+    <t>https://video.petcareplus.com/shop/promo-13.mp4</t>
+  </si>
+  <si>
+    <t>https://video.stylehub.com/rent/promo-14.mp4</t>
+  </si>
+  <si>
+    <t>https://video.homeglow.com/smart/promo-15.mp4</t>
+  </si>
+  <si>
+    <t>https://video.learnfast.com/courses/promo-16.mp4</t>
+  </si>
+  <si>
+    <t>https://video.electroshop.com/summer-sale.mp4</t>
+  </si>
+  <si>
+    <t>https://video.fashionnow.com/spring-collection.mp4</t>
+  </si>
+  <si>
+    <t>https://video.projectapp.com/demo.mp4</t>
+  </si>
+  <si>
+    <t>Get fit from home with personalized workout plans. Join 500K+ members transforming their lives!</t>
+  </si>
+  <si>
+    <t>Shop eco-friendly products that are good for you and the planet. Free shipping on orders $50+</t>
+  </si>
+  <si>
+    <t>Learn to code in 12 weeks with our intensive bootcamp. 95% job placement rate!</t>
+  </si>
+  <si>
+    <t>Chef-designed meals delivered to your door. Organic ingredients, easy recipes, zero waste.</t>
+  </si>
+  <si>
+    <t>Premium pet supplies, vet-approved food, and grooming. Everything your pet needs!</t>
+  </si>
+  <si>
+    <t>Rent designer clothes for 90% less. New arrivals every week. Unlimited wardrobe!</t>
+  </si>
+  <si>
+    <t>Transform your home with smart lighting, security, and automation. Easy setup!</t>
+  </si>
+  <si>
+    <t>Master any skill in 30 days with expert-led courses. Photography, design, business &amp; more.</t>
+  </si>
+  <si>
+    <t>Summer Electronics Blowout! Up to 70% off laptops, phones, tablets, and more. Limited time only!</t>
+  </si>
+  <si>
+    <t>Learn professional photography from award-winning photographers. Master composition, lighting, and editing.</t>
+  </si>
+  <si>
+    <t>NEW SPRING COLLECTION NOW AVAILABLE!!! SHOP THE HOTTEST TRENDS AND SAVE BIG ON YOUR FAVORITE STYLES TODAY!!!</t>
+  </si>
+  <si>
+    <t>Simplify project management with our all-in-one platform. Team collaboration made easy!</t>
+  </si>
+  <si>
+    <t>Transform Your Body</t>
+  </si>
+  <si>
+    <t>Sustainable Living</t>
+  </si>
+  <si>
+    <t>Master Coding Fast</t>
+  </si>
+  <si>
+    <t>Fresh Meal Kits</t>
+  </si>
+  <si>
+    <t>Happy Healthy Pets</t>
+  </si>
+  <si>
+    <t>Fashion on Demand</t>
+  </si>
+  <si>
+    <t>Smart Home Tech</t>
+  </si>
+  <si>
+    <t>Skills in 30 Days</t>
+  </si>
+  <si>
+    <t>Massive Summer Electronics Blowout Sale Event</t>
+  </si>
+  <si>
+    <t>Photography Masterclass</t>
+  </si>
+  <si>
+    <t>Spring Fashion Arrived</t>
+  </si>
+  <si>
+    <t>Project Management Tool</t>
+  </si>
+  <si>
+    <t>Start Free Trial</t>
+  </si>
+  <si>
+    <t>Shop Now</t>
+  </si>
+  <si>
+    <t>Apply Now</t>
+  </si>
+  <si>
+    <t>Get Started</t>
+  </si>
+  <si>
+    <t>Shop Deals</t>
+  </si>
+  <si>
+    <t>Browse Styles</t>
+  </si>
+  <si>
+    <t>Learn More</t>
+  </si>
+  <si>
+    <t>Start Learning</t>
+  </si>
+  <si>
+    <t>Save Big Today</t>
+  </si>
+  <si>
+    <t>Enroll Now</t>
+  </si>
+  <si>
+    <t>Shop New Styles</t>
+  </si>
+  <si>
+    <t>https://fitlife.com/join</t>
+  </si>
+  <si>
+    <t>https://ecoshop.com/products</t>
+  </si>
+  <si>
+    <t>https://techguru.com/bootcamp</t>
+  </si>
+  <si>
+    <t>https://foodiebox.com/plans</t>
+  </si>
+  <si>
+    <t>https://petcareplus.com/shop</t>
+  </si>
+  <si>
+    <t>https://stylehub.com/rent</t>
+  </si>
+  <si>
+    <t>https://homeglow.com/smart</t>
+  </si>
+  <si>
+    <t>https://learnfast.com/courses</t>
+  </si>
+  <si>
+    <t>https://electroshop.com/sale</t>
+  </si>
+  <si>
+    <t>https://photolearn.com/masterclass</t>
+  </si>
+  <si>
+    <t>https://fashionnow.com/spring</t>
+  </si>
+  <si>
+    <t>https://projectapp.com/trial</t>
+  </si>
+  <si>
+    <t>fitlife.com/join</t>
+  </si>
+  <si>
+    <t>ecoshop.com/products</t>
+  </si>
+  <si>
+    <t>techguru.com/bootcamp</t>
+  </si>
+  <si>
+    <t>foodiebox.com/plans</t>
+  </si>
+  <si>
+    <t>petcareplus.com/shop</t>
+  </si>
+  <si>
+    <t>stylehub.com/rent</t>
+  </si>
+  <si>
+    <t>homeglow.com/smart</t>
+  </si>
+  <si>
+    <t>learnfast.com/courses</t>
+  </si>
+  <si>
+    <t>electroshop.com/sale</t>
+  </si>
+  <si>
+    <t>photolearn.com</t>
+  </si>
+  <si>
+    <t>fashionnow.com</t>
+  </si>
+  <si>
+    <t>projectapp.com</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
   </si>
   <si>
     <t>SHOP_NOW</t>
   </si>
   <si>
-    <t>https://example.com/thumbnails/video.jpg</t>
+    <t>WATCH_MORE</t>
+  </si>
+  <si>
+    <t>LEARN_MORE</t>
+  </si>
+  <si>
+    <t>SIGN_UP</t>
+  </si>
+  <si>
+    <t>https://cdn.fitlife.com/join/thumb-1.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.ecoshop.com/products/thumb-2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.techguru.com/bootcamp/thumb-3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.foodiebox.com/plans/thumb-4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.petcareplus.com/shop/thumb-5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.stylehub.com/rent/thumb-6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.homeglow.com/smart/thumb-7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.learnfast.com/courses/thumb-8.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.fitlife.com/join/thumb-9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.ecoshop.com/products/thumb-10.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.techguru.com/bootcamp/thumb-11.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.foodiebox.com/plans/thumb-12.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.petcareplus.com/shop/thumb-13.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.stylehub.com/rent/thumb-14.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.homeglow.com/smart/thumb-15.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.learnfast.com/courses/thumb-16.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.electroshop.com/thumb-sale.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.photolearn.com/thumb-masterclass.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.fashionnow.com/thumb-spring.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.projectapp.com/thumb-demo.jpg</t>
   </si>
 </sst>
 </file>
@@ -664,151 +925,151 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -816,37 +1077,37 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -854,151 +1115,151 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1006,37 +1267,37 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1044,151 +1305,151 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1196,37 +1457,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1234,186 +1495,186 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="K20" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
